--- a/TQXZXXCWSHXT/bin/Debug/MODE.xlsx
+++ b/TQXZXXCWSHXT/bin/Debug/MODE.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="197">
   <si>
     <t>中心校</t>
   </si>
@@ -903,7 +903,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>宣传费</t>
+    <t>报账人：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -915,19 +915,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>图书资料购置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公设备购置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>劳务费</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>差旅费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书资料购置</t>
+    <t>其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公费</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -935,47 +951,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>电费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮电费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体育
-耗材</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公设备购置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳务费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>本月收入</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -984,22 +959,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>审核金额：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现问题金额：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>体检费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业管理费（保洁）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>现</t>
   </si>
   <si>
@@ -1011,31 +970,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>保安费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>时间:2018年10月 9日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>租赁费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>整改情况：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不合格票据全部打回学校整改</t>
+    <t>共审核金额：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现问题及整改情况:</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 单位名称：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>报账人：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1538,7 +1489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1730,6 +1681,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1751,18 +1717,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1778,33 +1768,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1865,64 +1828,64 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2245,11 +2208,11 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="27.95" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2268,40 +2231,40 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="24" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="27.95" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2310,7 @@
       <c r="R4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="65"/>
+      <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="36.950000000000003" customHeight="1">
       <c r="A5" s="5"/>
@@ -2647,10 +2610,10 @@
       <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="8"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -2670,55 +2633,55 @@
       <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="47" t="s">
         <v>166</v>
       </c>
@@ -3058,26 +3021,26 @@
       <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
     </row>
     <row r="20" spans="1:18" ht="26.1" customHeight="1">
       <c r="B20" s="49" t="s">
@@ -3118,10 +3081,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:R3"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3129,14 +3092,14 @@
     <col min="1" max="1" width="3" style="46" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="46" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="46" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="46" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="46" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="46" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="46" customWidth="1"/>
     <col min="9" max="9" width="6.875" style="46" customWidth="1"/>
     <col min="10" max="10" width="7.625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="6" style="46" customWidth="1"/>
+    <col min="11" max="11" width="5" style="46" customWidth="1"/>
     <col min="12" max="12" width="6.75" style="46" customWidth="1"/>
     <col min="13" max="13" width="7.25" style="46" customWidth="1"/>
     <col min="14" max="14" width="8.75" style="46" customWidth="1"/>
@@ -3160,156 +3123,122 @@
         <v>1</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:25" ht="23.25" customHeight="1">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
     </row>
     <row r="3" spans="1:25" ht="39.75" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="A3" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="I3" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
       <c r="L3" s="54"/>
       <c r="M3" s="54"/>
-      <c r="N3" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
+      <c r="N3" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
       <c r="W3" s="60"/>
       <c r="X3" s="60"/>
       <c r="Y3" s="60"/>
     </row>
     <row r="4" spans="1:25" ht="25.5" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="83"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="53" t="s">
         <v>24</v>
       </c>
       <c r="O4" s="53"/>
       <c r="P4" s="53"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:25" ht="55.5" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="R5" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="S5" s="56" t="s">
-        <v>185</v>
-      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
       <c r="T5" s="53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="53" t="s">
@@ -3338,7 +3267,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A7" s="82"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="53" t="s">
         <v>37</v>
       </c>
@@ -3364,7 +3293,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A8" s="82"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="53" t="s">
         <v>38</v>
       </c>
@@ -3391,7 +3320,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A9" s="83"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
@@ -3469,7 +3398,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="84" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -3498,7 +3427,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A11" s="82"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="53" t="s">
         <v>37</v>
       </c>
@@ -3525,7 +3454,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A12" s="82"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="53" t="s">
         <v>38</v>
       </c>
@@ -3552,7 +3481,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="26.25" customHeight="1">
-      <c r="A13" s="83"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="53" t="s">
         <v>24</v>
       </c>
@@ -3630,31 +3559,31 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70">
         <f>C4+K4-T13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
     </row>
     <row r="15" spans="1:25" ht="51.75" customHeight="1">
       <c r="B15" s="49" t="s">
@@ -3676,350 +3605,462 @@
       </c>
       <c r="M15" s="49"/>
     </row>
-    <row r="17" spans="5:19" ht="30" customHeight="1">
-      <c r="E17" s="88" t="s">
+    <row r="17" spans="3:19" ht="30" customHeight="1">
+      <c r="E17" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="E19" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-    </row>
-    <row r="19" spans="5:19">
-      <c r="E19" s="88" t="s">
+    </row>
+    <row r="23" spans="3:19" ht="13.5" customHeight="1">
+      <c r="C23" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="89">
-        <f>T13</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="89"/>
-    </row>
-    <row r="25" spans="5:19">
-      <c r="E25" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88">
-        <f>T9-T13</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="88"/>
-    </row>
-    <row r="28" spans="5:19">
-      <c r="E28" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="F28" s="85"/>
-    </row>
-    <row r="29" spans="5:19">
-      <c r="G29" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-    </row>
-    <row r="30" spans="5:19">
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-    </row>
-    <row r="31" spans="5:19">
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-    </row>
-    <row r="32" spans="5:19">
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-    </row>
-    <row r="33" spans="7:19">
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-    </row>
-    <row r="34" spans="7:19">
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-    </row>
-    <row r="35" spans="7:19">
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-    </row>
-    <row r="36" spans="7:19">
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-    </row>
-    <row r="37" spans="7:19">
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-    </row>
-    <row r="38" spans="7:19">
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-    </row>
-    <row r="39" spans="7:19">
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-    </row>
-    <row r="40" spans="7:19">
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-    </row>
-    <row r="41" spans="7:19">
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-    </row>
-    <row r="42" spans="7:19">
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-    </row>
-    <row r="43" spans="7:19">
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-    </row>
-    <row r="44" spans="7:19">
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-    </row>
-    <row r="45" spans="7:19">
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-    </row>
-    <row r="46" spans="7:19">
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
-    </row>
-    <row r="47" spans="7:19">
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="66"/>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="E28" s="68"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+    </row>
+    <row r="29" spans="3:19" ht="13.5" customHeight="1">
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="67"/>
+    </row>
+    <row r="30" spans="3:19">
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="67"/>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="67"/>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="67"/>
+    </row>
+    <row r="33" spans="5:19">
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="67"/>
+    </row>
+    <row r="34" spans="5:19">
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="67"/>
+    </row>
+    <row r="35" spans="5:19">
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="67"/>
+    </row>
+    <row r="36" spans="5:19">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+    </row>
+    <row r="37" spans="5:19">
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+    </row>
+    <row r="38" spans="5:19">
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+    </row>
+    <row r="39" spans="5:19">
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
+    </row>
+    <row r="40" spans="5:19">
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+    </row>
+    <row r="41" spans="5:19">
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+    </row>
+    <row r="42" spans="5:19">
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+    </row>
+    <row r="43" spans="5:19">
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+    </row>
+    <row r="44" spans="5:19">
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+    </row>
+    <row r="45" spans="5:19">
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+    </row>
+    <row r="46" spans="5:19">
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+    </row>
+    <row r="47" spans="5:19">
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+    </row>
+    <row r="48" spans="5:19">
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+    </row>
+    <row r="49" spans="7:18">
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="67"/>
+    </row>
+    <row r="50" spans="7:18">
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+    </row>
+    <row r="51" spans="7:18">
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G29:S47"/>
-    <mergeCell ref="E17:O17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:T14"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
+  <mergeCells count="20">
     <mergeCell ref="B2:T2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:H4"/>
@@ -4030,6 +4071,16 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:T14"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="E17:O17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G24:R35"/>
+    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.27500000000000002" right="0.31458333333333299" top="0.31458333333333299" bottom="0.51180555555555596" header="0.31458333333333299" footer="0.51180555555555596"/>
@@ -4059,15 +4110,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" ht="45" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -4339,52 +4390,52 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18" customHeight="1">
       <c r="A1" s="12"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="98" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="95" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="95" t="s">
         <v>78</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="95" t="s">
         <v>79</v>
       </c>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-      <c r="N1" s="91" t="s">
+      <c r="N1" s="95" t="s">
         <v>54</v>
       </c>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
-      <c r="Q1" s="91" t="s">
+      <c r="Q1" s="95" t="s">
         <v>52</v>
       </c>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="91" t="s">
+      <c r="T1" s="95" t="s">
         <v>62</v>
       </c>
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
-      <c r="W1" s="91" t="s">
+      <c r="W1" s="95" t="s">
         <v>57</v>
       </c>
       <c r="X1" s="14"/>
       <c r="Y1" s="14"/>
-      <c r="Z1" s="91" t="s">
+      <c r="Z1" s="95" t="s">
         <v>59</v>
       </c>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
-      <c r="AC1" s="91" t="s">
+      <c r="AC1" s="95" t="s">
         <v>53</v>
       </c>
       <c r="AD1" s="14"/>
@@ -4392,529 +4443,529 @@
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="95"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="92"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="92"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="92"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
-      <c r="N2" s="92"/>
+      <c r="N2" s="96"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="92"/>
+      <c r="Q2" s="96"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
-      <c r="T2" s="92"/>
+      <c r="T2" s="96"/>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
-      <c r="W2" s="92"/>
+      <c r="W2" s="96"/>
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="92"/>
+      <c r="Z2" s="96"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
-      <c r="AC2" s="92"/>
+      <c r="AC2" s="96"/>
       <c r="AD2" s="15"/>
       <c r="AE2" s="15"/>
     </row>
     <row r="3" spans="1:31" ht="18" customHeight="1">
       <c r="A3" s="12"/>
-      <c r="B3" s="95"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="92"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="92"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="92"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="92"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-      <c r="Q3" s="92"/>
+      <c r="Q3" s="96"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
-      <c r="T3" s="92"/>
+      <c r="T3" s="96"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="92"/>
+      <c r="W3" s="96"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
-      <c r="Z3" s="92"/>
+      <c r="Z3" s="96"/>
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
-      <c r="AC3" s="92"/>
+      <c r="AC3" s="96"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
     </row>
     <row r="4" spans="1:31" ht="18" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="95"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="92"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="92"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="92"/>
+      <c r="K4" s="96"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="92"/>
+      <c r="N4" s="96"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
-      <c r="Q4" s="92"/>
+      <c r="Q4" s="96"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
-      <c r="T4" s="92"/>
+      <c r="T4" s="96"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-      <c r="W4" s="92"/>
+      <c r="W4" s="96"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="92"/>
+      <c r="Z4" s="96"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
-      <c r="AC4" s="92"/>
+      <c r="AC4" s="96"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
     </row>
     <row r="5" spans="1:31" ht="18" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="95"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="92"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="92"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="92"/>
+      <c r="K5" s="96"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="92"/>
+      <c r="N5" s="96"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="92"/>
+      <c r="Q5" s="96"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="92"/>
+      <c r="T5" s="96"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="92"/>
+      <c r="W5" s="96"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="92"/>
+      <c r="Z5" s="96"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
-      <c r="AC5" s="92"/>
+      <c r="AC5" s="96"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
     </row>
     <row r="6" spans="1:31" ht="18" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="95"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="92"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="92"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="92"/>
+      <c r="K6" s="96"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="92"/>
+      <c r="N6" s="96"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="92"/>
+      <c r="Q6" s="96"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="92"/>
+      <c r="T6" s="96"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
-      <c r="W6" s="92"/>
+      <c r="W6" s="96"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="92"/>
+      <c r="Z6" s="96"/>
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
-      <c r="AC6" s="92"/>
+      <c r="AC6" s="96"/>
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
     </row>
     <row r="7" spans="1:31" ht="18" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="92"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="92"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="92"/>
+      <c r="K7" s="96"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="92"/>
+      <c r="N7" s="96"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="92"/>
+      <c r="Q7" s="96"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="92"/>
+      <c r="T7" s="96"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="92"/>
+      <c r="W7" s="96"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="92"/>
+      <c r="Z7" s="96"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
-      <c r="AC7" s="92"/>
+      <c r="AC7" s="96"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
     </row>
     <row r="8" spans="1:31" ht="18" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="95"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="92"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="92"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="92"/>
+      <c r="K8" s="96"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="92"/>
+      <c r="N8" s="96"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="92"/>
+      <c r="Q8" s="96"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="92"/>
+      <c r="T8" s="96"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="92"/>
+      <c r="W8" s="96"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="92"/>
+      <c r="Z8" s="96"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="92"/>
+      <c r="AC8" s="96"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
     </row>
     <row r="9" spans="1:31" ht="18" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="95"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="92"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="92"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="92"/>
+      <c r="K9" s="96"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="92"/>
+      <c r="N9" s="96"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="92"/>
+      <c r="Q9" s="96"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="92"/>
+      <c r="T9" s="96"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="92"/>
+      <c r="W9" s="96"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="92"/>
+      <c r="Z9" s="96"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
-      <c r="AC9" s="92"/>
+      <c r="AC9" s="96"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
     </row>
     <row r="10" spans="1:31" ht="18" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="95"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="92"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="92"/>
+      <c r="H10" s="96"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="92"/>
+      <c r="K10" s="96"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="92"/>
+      <c r="N10" s="96"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="92"/>
+      <c r="Q10" s="96"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="92"/>
+      <c r="T10" s="96"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="92"/>
+      <c r="W10" s="96"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="92"/>
+      <c r="Z10" s="96"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
-      <c r="AC10" s="92"/>
+      <c r="AC10" s="96"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
     </row>
     <row r="11" spans="1:31" ht="18" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="95"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="92"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="92"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="92"/>
+      <c r="K11" s="96"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="92"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="92"/>
+      <c r="Q11" s="96"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="92"/>
+      <c r="T11" s="96"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="W11" s="92"/>
+      <c r="W11" s="96"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="92"/>
+      <c r="Z11" s="96"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
-      <c r="AC11" s="92"/>
+      <c r="AC11" s="96"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
     </row>
     <row r="12" spans="1:31" ht="18" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="95"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="92"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="92"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="92"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="92"/>
+      <c r="N12" s="96"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="92"/>
+      <c r="Q12" s="96"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="92"/>
+      <c r="T12" s="96"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
-      <c r="W12" s="92"/>
+      <c r="W12" s="96"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="92"/>
+      <c r="Z12" s="96"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
-      <c r="AC12" s="92"/>
+      <c r="AC12" s="96"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
     </row>
     <row r="13" spans="1:31" ht="18" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="95"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="92"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="92"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="92"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="92"/>
+      <c r="N13" s="96"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="92"/>
+      <c r="Q13" s="96"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="92"/>
+      <c r="T13" s="96"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="92"/>
+      <c r="W13" s="96"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="92"/>
+      <c r="Z13" s="96"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
-      <c r="AC13" s="92"/>
+      <c r="AC13" s="96"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
     </row>
     <row r="14" spans="1:31" ht="18" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="95"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="92"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="92"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="92"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="92"/>
+      <c r="N14" s="96"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="92"/>
+      <c r="Q14" s="96"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="92"/>
+      <c r="T14" s="96"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
-      <c r="W14" s="92"/>
+      <c r="W14" s="96"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
-      <c r="Z14" s="92"/>
+      <c r="Z14" s="96"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
-      <c r="AC14" s="92"/>
+      <c r="AC14" s="96"/>
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
     </row>
     <row r="15" spans="1:31" ht="18" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="95"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="92"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="92"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="92"/>
+      <c r="K15" s="96"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="92"/>
+      <c r="N15" s="96"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="92"/>
+      <c r="Q15" s="96"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="92"/>
+      <c r="T15" s="96"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
-      <c r="W15" s="92"/>
+      <c r="W15" s="96"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="92"/>
+      <c r="Z15" s="96"/>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
-      <c r="AC15" s="92"/>
+      <c r="AC15" s="96"/>
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
     </row>
     <row r="16" spans="1:31" ht="18" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="95"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="92"/>
+      <c r="E16" s="96"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="92"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="92"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="92"/>
+      <c r="N16" s="96"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="92"/>
+      <c r="Q16" s="96"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
-      <c r="T16" s="92"/>
+      <c r="T16" s="96"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
-      <c r="W16" s="92"/>
+      <c r="W16" s="96"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="92"/>
+      <c r="Z16" s="96"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
-      <c r="AC16" s="92"/>
+      <c r="AC16" s="96"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="15"/>
     </row>
     <row r="17" spans="1:31" ht="18" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="96"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="93"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="93"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="93"/>
+      <c r="K17" s="97"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="93"/>
+      <c r="N17" s="97"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="93"/>
+      <c r="Q17" s="97"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
-      <c r="T17" s="93"/>
+      <c r="T17" s="97"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="93"/>
+      <c r="W17" s="97"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="93"/>
+      <c r="Z17" s="97"/>
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
-      <c r="AC17" s="93"/>
+      <c r="AC17" s="97"/>
       <c r="AD17" s="15"/>
       <c r="AE17" s="15"/>
     </row>
@@ -4946,47 +4997,47 @@
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="98" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="95" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="91" t="s">
+      <c r="H20" s="95" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="91" t="s">
+      <c r="K20" s="95" t="s">
         <v>82</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="91" t="s">
+      <c r="N20" s="95" t="s">
         <v>61</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="91" t="s">
+      <c r="Q20" s="95" t="s">
         <v>55</v>
       </c>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
-      <c r="T20" s="91" t="s">
+      <c r="T20" s="95" t="s">
         <v>56</v>
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="91" t="s">
+      <c r="W20" s="95" t="s">
         <v>81</v>
       </c>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="91"/>
+      <c r="Z20" s="95"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AD20" s="15"/>
@@ -4994,31 +5045,31 @@
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="95"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="92"/>
+      <c r="E21" s="96"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="92"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="92"/>
+      <c r="K21" s="96"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="92"/>
+      <c r="N21" s="96"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="92"/>
+      <c r="Q21" s="96"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="92"/>
+      <c r="T21" s="96"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="W21" s="92"/>
+      <c r="W21" s="96"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
-      <c r="Z21" s="92"/>
+      <c r="Z21" s="96"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AD21" s="15"/>
@@ -5026,31 +5077,31 @@
     </row>
     <row r="22" spans="1:31" ht="18" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="95"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="92"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="92"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="92"/>
+      <c r="K22" s="96"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="92"/>
+      <c r="N22" s="96"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="92"/>
+      <c r="Q22" s="96"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
-      <c r="T22" s="92"/>
+      <c r="T22" s="96"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="92"/>
+      <c r="W22" s="96"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="92"/>
+      <c r="Z22" s="96"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AD22" s="15"/>
@@ -5058,31 +5109,31 @@
     </row>
     <row r="23" spans="1:31" ht="18" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="95"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="92"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="92"/>
+      <c r="H23" s="96"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="92"/>
+      <c r="K23" s="96"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="92"/>
+      <c r="N23" s="96"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="92"/>
+      <c r="Q23" s="96"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="92"/>
+      <c r="T23" s="96"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="92"/>
+      <c r="W23" s="96"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="92"/>
+      <c r="Z23" s="96"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
       <c r="AD23" s="15"/>
@@ -5090,31 +5141,31 @@
     </row>
     <row r="24" spans="1:31" ht="18" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="95"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="92"/>
+      <c r="E24" s="96"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="92"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="92"/>
+      <c r="K24" s="96"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="92"/>
+      <c r="N24" s="96"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="92"/>
+      <c r="Q24" s="96"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="92"/>
+      <c r="T24" s="96"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="92"/>
+      <c r="W24" s="96"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="92"/>
+      <c r="Z24" s="96"/>
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AD24" s="15"/>
@@ -5122,31 +5173,31 @@
     </row>
     <row r="25" spans="1:31" ht="18" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="95"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="92"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="92"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="92"/>
+      <c r="K25" s="96"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="92"/>
+      <c r="N25" s="96"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
-      <c r="Q25" s="92"/>
+      <c r="Q25" s="96"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
-      <c r="T25" s="92"/>
+      <c r="T25" s="96"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="92"/>
+      <c r="W25" s="96"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="92"/>
+      <c r="Z25" s="96"/>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
       <c r="AD25" s="15"/>
@@ -5154,31 +5205,31 @@
     </row>
     <row r="26" spans="1:31" ht="18" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="95"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="92"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="92"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="92"/>
+      <c r="K26" s="96"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="92"/>
+      <c r="N26" s="96"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="92"/>
+      <c r="Q26" s="96"/>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
-      <c r="T26" s="92"/>
+      <c r="T26" s="96"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
-      <c r="W26" s="92"/>
+      <c r="W26" s="96"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="92"/>
+      <c r="Z26" s="96"/>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AD26" s="15"/>
@@ -5186,31 +5237,31 @@
     </row>
     <row r="27" spans="1:31" ht="18" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="95"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="92"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="92"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="92"/>
+      <c r="K27" s="96"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="92"/>
+      <c r="N27" s="96"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="92"/>
+      <c r="Q27" s="96"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
-      <c r="T27" s="92"/>
+      <c r="T27" s="96"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-      <c r="W27" s="92"/>
+      <c r="W27" s="96"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="92"/>
+      <c r="Z27" s="96"/>
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
       <c r="AD27" s="15"/>
@@ -5218,31 +5269,31 @@
     </row>
     <row r="28" spans="1:31" ht="18" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="95"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="92"/>
+      <c r="E28" s="96"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="92"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="92"/>
+      <c r="K28" s="96"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="92"/>
+      <c r="N28" s="96"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="92"/>
+      <c r="Q28" s="96"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
-      <c r="T28" s="92"/>
+      <c r="T28" s="96"/>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
-      <c r="W28" s="92"/>
+      <c r="W28" s="96"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="92"/>
+      <c r="Z28" s="96"/>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
       <c r="AD28" s="15"/>
@@ -5250,31 +5301,31 @@
     </row>
     <row r="29" spans="1:31" ht="18" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="95"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="92"/>
+      <c r="E29" s="96"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="92"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="92"/>
+      <c r="K29" s="96"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="92"/>
+      <c r="N29" s="96"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="92"/>
+      <c r="Q29" s="96"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
-      <c r="T29" s="92"/>
+      <c r="T29" s="96"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="92"/>
+      <c r="W29" s="96"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="92"/>
+      <c r="Z29" s="96"/>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
       <c r="AD29" s="15"/>
@@ -5282,31 +5333,31 @@
     </row>
     <row r="30" spans="1:31" ht="18" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="95"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="92"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="92"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="92"/>
+      <c r="K30" s="96"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="92"/>
+      <c r="N30" s="96"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="92"/>
+      <c r="Q30" s="96"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
-      <c r="T30" s="92"/>
+      <c r="T30" s="96"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="92"/>
+      <c r="W30" s="96"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="92"/>
+      <c r="Z30" s="96"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
       <c r="AD30" s="15"/>
@@ -5314,31 +5365,31 @@
     </row>
     <row r="31" spans="1:31" ht="18" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="95"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="92"/>
+      <c r="E31" s="96"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="92"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="92"/>
+      <c r="K31" s="96"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="92"/>
+      <c r="N31" s="96"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="92"/>
+      <c r="Q31" s="96"/>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
-      <c r="T31" s="92"/>
+      <c r="T31" s="96"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
-      <c r="W31" s="92"/>
+      <c r="W31" s="96"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="92"/>
+      <c r="Z31" s="96"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
       <c r="AD31" s="15"/>
@@ -5346,31 +5397,31 @@
     </row>
     <row r="32" spans="1:31" ht="18" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="95"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="92"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="92"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="92"/>
+      <c r="K32" s="96"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="92"/>
+      <c r="N32" s="96"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="92"/>
+      <c r="Q32" s="96"/>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
-      <c r="T32" s="92"/>
+      <c r="T32" s="96"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="92"/>
+      <c r="W32" s="96"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="92"/>
+      <c r="Z32" s="96"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AD32" s="15"/>
@@ -5378,31 +5429,31 @@
     </row>
     <row r="33" spans="1:31" ht="18" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="95"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="92"/>
+      <c r="E33" s="96"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="92"/>
+      <c r="H33" s="96"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="92"/>
+      <c r="K33" s="96"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="92"/>
+      <c r="N33" s="96"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="92"/>
+      <c r="Q33" s="96"/>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
-      <c r="T33" s="92"/>
+      <c r="T33" s="96"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="W33" s="92"/>
+      <c r="W33" s="96"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
-      <c r="Z33" s="92"/>
+      <c r="Z33" s="96"/>
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
       <c r="AD33" s="15"/>
@@ -5410,31 +5461,31 @@
     </row>
     <row r="34" spans="1:31" ht="18" customHeight="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="95"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="92"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="92"/>
+      <c r="H34" s="96"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="92"/>
+      <c r="K34" s="96"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="92"/>
+      <c r="N34" s="96"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="92"/>
+      <c r="Q34" s="96"/>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
-      <c r="T34" s="92"/>
+      <c r="T34" s="96"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="92"/>
+      <c r="W34" s="96"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
-      <c r="Z34" s="92"/>
+      <c r="Z34" s="96"/>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
       <c r="AD34" s="15"/>
@@ -5442,31 +5493,31 @@
     </row>
     <row r="35" spans="1:31" ht="18" customHeight="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="95"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="92"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="92"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="92"/>
+      <c r="K35" s="96"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="92"/>
+      <c r="N35" s="96"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="92"/>
+      <c r="Q35" s="96"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="92"/>
+      <c r="T35" s="96"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="W35" s="92"/>
+      <c r="W35" s="96"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
-      <c r="Z35" s="92"/>
+      <c r="Z35" s="96"/>
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
       <c r="AD35" s="15"/>
@@ -5474,31 +5525,31 @@
     </row>
     <row r="36" spans="1:31" ht="18" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="96"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="93"/>
+      <c r="E36" s="97"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="93"/>
+      <c r="H36" s="97"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="93"/>
+      <c r="K36" s="97"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="93"/>
+      <c r="N36" s="97"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="93"/>
+      <c r="Q36" s="97"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="93"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="93"/>
+      <c r="W36" s="97"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
-      <c r="Z36" s="93"/>
+      <c r="Z36" s="97"/>
       <c r="AA36" s="15"/>
       <c r="AB36" s="15"/>
       <c r="AD36" s="15"/>
@@ -5740,6 +5791,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AC1:AC17"/>
+    <mergeCell ref="T20:T36"/>
+    <mergeCell ref="W20:W36"/>
+    <mergeCell ref="Z20:Z36"/>
+    <mergeCell ref="T1:T17"/>
+    <mergeCell ref="W1:W17"/>
+    <mergeCell ref="Z1:Z17"/>
     <mergeCell ref="Q1:Q17"/>
     <mergeCell ref="B20:B36"/>
     <mergeCell ref="E20:E36"/>
@@ -5752,13 +5810,6 @@
     <mergeCell ref="E1:E17"/>
     <mergeCell ref="K1:K17"/>
     <mergeCell ref="N1:N17"/>
-    <mergeCell ref="AC1:AC17"/>
-    <mergeCell ref="T20:T36"/>
-    <mergeCell ref="W20:W36"/>
-    <mergeCell ref="Z20:Z36"/>
-    <mergeCell ref="T1:T17"/>
-    <mergeCell ref="W1:W17"/>
-    <mergeCell ref="Z1:Z17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5792,24 +5843,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A1" s="103"/>
-      <c r="B1" s="103"/>
+      <c r="A1" s="107"/>
+      <c r="B1" s="107"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="J2" s="105" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="J2" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="105"/>
+      <c r="K2" s="109"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
     </row>
@@ -5847,7 +5898,7 @@
       <c r="D4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="110" t="s">
         <v>89</v>
       </c>
       <c r="G4" s="22" t="s">
@@ -5867,7 +5918,7 @@
       <c r="D5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="102"/>
+      <c r="E5" s="106"/>
       <c r="G5" s="22" t="s">
         <v>94</v>
       </c>
@@ -5925,7 +5976,7 @@
       <c r="G8" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="111" t="s">
         <v>107</v>
       </c>
       <c r="J8" s="22" t="s">
@@ -5941,13 +5992,13 @@
       <c r="D9" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="104" t="s">
         <v>111</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="108"/>
+      <c r="H9" s="112"/>
       <c r="J9" s="22" t="s">
         <v>113</v>
       </c>
@@ -5961,11 +6012,11 @@
       <c r="D10" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="102"/>
+      <c r="E10" s="106"/>
       <c r="G10" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="109"/>
+      <c r="H10" s="113"/>
     </row>
     <row r="11" spans="1:13" ht="23.1" customHeight="1">
       <c r="A11" s="20" t="s">
@@ -5981,13 +6032,13 @@
       <c r="A12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="101" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="104" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5995,27 +6046,27 @@
       <c r="A13" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="102"/>
       <c r="D13" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="105"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="98"/>
+      <c r="B14" s="102"/>
       <c r="D14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="102"/>
+      <c r="E14" s="106"/>
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="99"/>
+      <c r="B15" s="103"/>
       <c r="D15" s="20" t="s">
         <v>128</v>
       </c>
@@ -6097,48 +6148,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="114"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="27" t="s">
         <v>136</v>
       </c>
@@ -6150,20 +6201,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="25" t="s">
         <v>141</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="111"/>
+      <c r="F4" s="115"/>
       <c r="G4" s="29">
         <v>400</v>
       </c>
@@ -6173,7 +6224,7 @@
       <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="130" t="s">
         <v>148</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -6200,7 +6251,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A6" s="113"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="27" t="s">
         <v>161</v>
       </c>
@@ -6216,32 +6267,32 @@
       <c r="F6" s="24">
         <v>80</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="120"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="116"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="24" t="s">
         <v>150</v>
       </c>
@@ -6263,7 +6314,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="100.5" customHeight="1">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="121" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -6290,7 +6341,7 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A10" s="118"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="32" t="s">
         <v>153</v>
       </c>
@@ -6306,14 +6357,14 @@
       <c r="F10" s="30">
         <v>80</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="121"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="118" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="34" t="s">
@@ -6325,18 +6376,18 @@
       <c r="D11" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="123">
+      <c r="E11" s="128">
         <v>80</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="122">
+      <c r="F11" s="128"/>
+      <c r="G11" s="126">
         <v>150</v>
       </c>
-      <c r="H11" s="122"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A12" s="128"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="27" t="s">
         <v>157</v>
       </c>
@@ -6346,44 +6397,44 @@
       <c r="D12" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A13" s="128"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="31" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="124">
+      <c r="E13" s="114">
         <v>0.8</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="124">
+      <c r="F13" s="115"/>
+      <c r="G13" s="114">
         <v>0.8</v>
       </c>
-      <c r="H13" s="111"/>
+      <c r="H13" s="115"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A14" s="129"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="39" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="125">
+      <c r="E14" s="116">
         <v>0.7</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="125">
+      <c r="F14" s="117"/>
+      <c r="G14" s="116">
         <v>0.7</v>
       </c>
-      <c r="H14" s="126"/>
+      <c r="H14" s="117"/>
       <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" customHeight="1"/>
@@ -6398,11 +6449,16 @@
     <row r="24" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G10:H10"/>
@@ -6410,16 +6466,11 @@
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6447,14 +6498,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="50" t="s">
@@ -6667,22 +6718,22 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K1" s="61" t="s">
         <v>177</v>
@@ -6691,22 +6742,22 @@
         <v>176</v>
       </c>
       <c r="N1" s="61" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O1" s="61" t="s">
         <v>176</v>
       </c>
       <c r="Q1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="T1" s="61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U1" s="61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -6720,7 +6771,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -6739,7 +6790,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6830,7 +6881,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -6841,7 +6892,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:23">
@@ -6852,7 +6903,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:23">
@@ -6863,7 +6914,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:23">
@@ -6874,7 +6925,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:23">
